--- a/Analytics/F1/Bookings_f1.xlsx
+++ b/Analytics/F1/Bookings_f1.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\Analytics\F1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5EFDE-D0EB-4CE2-A917-6BC8D89AF451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeBookings" r:id="rId3" sheetId="1"/>
-    <sheet name="AwayBookings" r:id="rId4" sheetId="2"/>
-    <sheet name="TotalBookings" r:id="rId5" sheetId="3"/>
+    <sheet name="HomeBookings" sheetId="1" r:id="rId1"/>
+    <sheet name="AwayBookings" sheetId="2" r:id="rId2"/>
+    <sheet name="TotalBookings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,11 +158,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -176,19 +191,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -196,219 +520,292 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
-        <v>920.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>920</v>
+      </c>
+      <c r="D2">
+        <f>C2/17</f>
+        <v>54.117647058823529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
-        <v>870.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>870</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">C3/17</f>
+        <v>51.176470588235297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="n">
-        <v>840.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>840</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>49.411764705882355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>835.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>835</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>49.117647058823529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
-        <v>805.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>805</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>47.352941176470587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>805.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>805</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>47.352941176470587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="n">
-        <v>785.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>785</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>46.176470588235297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="n">
-        <v>780.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>780</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>45.882352941176471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="n">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>765</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>760.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>760</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>44.705882352941174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
-        <v>735.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>735</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>43.235294117647058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="n">
-        <v>710.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>710</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>41.764705882352942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>695.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>695</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>40.882352941176471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>690.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>690</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>40.588235294117645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="n">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>665</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>39.117647058823529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>665</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>39.117647058823529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="n">
-        <v>610.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>610</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>35.882352941176471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
-        <v>555.0</v>
+      <c r="C19">
+        <v>555</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>32.647058823529413</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -416,219 +813,292 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>965.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>965</v>
+      </c>
+      <c r="D2">
+        <f>C2/17</f>
+        <v>56.764705882352942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="n">
-        <v>950.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>950</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="0">C3/17</f>
+        <v>55.882352941176471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="n">
-        <v>890.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>890</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>52.352941176470587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>870.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>870</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>51.176470588235297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>830.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>830</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>48.823529411764703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="n">
-        <v>825.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>825</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>48.529411764705884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="n">
-        <v>795.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>795</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>46.764705882352942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>765</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="n">
-        <v>755.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>755</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>44.411764705882355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>745.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>745</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>43.823529411764703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="n">
-        <v>720.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>720</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>42.352941176470587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="n">
-        <v>705.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>705</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>41.470588235294116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="n">
-        <v>695.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>695</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>40.882352941176471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="n">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>685</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>40.294117647058826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
-        <v>610.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>610</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>35.882352941176471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="n">
-        <v>580.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>580</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>34.117647058823529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>555</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>32.647058823529413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
-        <v>550.0</v>
+      <c r="C19">
+        <v>550</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>32.352941176470587</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -639,259 +1109,259 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>1745.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.3235294117647</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>1745</v>
+      </c>
+      <c r="D2">
+        <v>51.323529411764703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
-        <v>1685.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.55882352941177</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>1685</v>
+      </c>
+      <c r="D3">
+        <v>49.558823529411768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="n">
-        <v>1665.0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>1665</v>
+      </c>
+      <c r="D4">
         <v>48.970588235294116</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="n">
-        <v>1640.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48.23529411764706</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>1640</v>
+      </c>
+      <c r="D5">
+        <v>48.235294117647058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="n">
-        <v>1635.0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>1635</v>
+      </c>
+      <c r="D6">
         <v>48.088235294117645</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>1635.0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>1635</v>
+      </c>
+      <c r="D7">
         <v>48.088235294117645</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>1600.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>47.05882352941177</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>1600</v>
+      </c>
+      <c r="D8">
+        <v>47.058823529411768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="n">
-        <v>1555.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45.73529411764706</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>1555</v>
+      </c>
+      <c r="D9">
+        <v>45.735294117647058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="n">
-        <v>1555.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.73529411764706</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>1555</v>
+      </c>
+      <c r="D10">
+        <v>45.735294117647058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>1505.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44.26470588235294</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>1505</v>
+      </c>
+      <c r="D11">
+        <v>44.264705882352942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="n">
-        <v>1490.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>43.8235294117647</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>1490</v>
+      </c>
+      <c r="D12">
+        <v>43.823529411764703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="n">
-        <v>1490.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>43.8235294117647</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>1490</v>
+      </c>
+      <c r="D13">
+        <v>43.823529411764703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
-        <v>1415.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>41.61764705882353</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>1415</v>
+      </c>
+      <c r="D14">
+        <v>41.617647058823529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="n">
-        <v>1360.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>1360</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="n">
-        <v>1335.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39.26470588235294</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>1335</v>
+      </c>
+      <c r="D16">
+        <v>39.264705882352942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="n">
-        <v>1315.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>38.6764705882353</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>1315</v>
+      </c>
+      <c r="D17">
+        <v>38.676470588235297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>1220.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>35.88235294117647</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>1220</v>
+      </c>
+      <c r="D18">
+        <v>35.882352941176471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
-        <v>1135.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>33.38235294117647</v>
+      <c r="C19">
+        <v>1135</v>
+      </c>
+      <c r="D19">
+        <v>33.382352941176471</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analytics/F1/Bookings_f1.xlsx
+++ b/Analytics/F1/Bookings_f1.xlsx
@@ -76,55 +76,55 @@
     <t>18</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Paris SG</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>St Etienne</t>
   </si>
   <si>
     <t>Nantes</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
   </si>
   <si>
     <t>Auxerre</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>310.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>300.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>275.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>275.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>270.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>265.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>255.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>255.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>250.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>245.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>240.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>240.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>210.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>190.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>185.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>180.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>180.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>120.0</v>
+        <v>240.0</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +424,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>355.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>345.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>295.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>295.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>295.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>280.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>260.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>250.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>230.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>210.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>210.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>185.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>180.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>175.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="17">
@@ -589,7 +589,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>175.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>170.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>145.0</v>
+        <v>235.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>595.0</v>
+        <v>955.0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>585.0</v>
+        <v>805.0</v>
       </c>
       <c r="D3" t="n">
-        <v>58.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>540.0</v>
+        <v>790.0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>540.0</v>
+        <v>720.0</v>
       </c>
       <c r="D5" t="n">
-        <v>54.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>520.0</v>
+        <v>710.0</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>505.0</v>
+        <v>700.0</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>490.0</v>
+        <v>685.0</v>
       </c>
       <c r="D8" t="n">
-        <v>49.0</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>485.0</v>
+        <v>675.0</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>480.0</v>
+        <v>665.0</v>
       </c>
       <c r="D10" t="n">
-        <v>48.0</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>465.0</v>
+        <v>660.0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.5</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
@@ -787,10 +787,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>450.0</v>
+        <v>645.0</v>
       </c>
       <c r="D12" t="n">
-        <v>45.0</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>440.0</v>
+        <v>630.0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>425.0</v>
+        <v>620.0</v>
       </c>
       <c r="D14" t="n">
-        <v>42.5</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>420.0</v>
+        <v>595.0</v>
       </c>
       <c r="D15" t="n">
-        <v>42.0</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>415.0</v>
+        <v>590.0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.5</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>390.0</v>
+        <v>580.0</v>
       </c>
       <c r="D17" t="n">
-        <v>39.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="18">
@@ -871,10 +871,10 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>380.0</v>
+        <v>550.0</v>
       </c>
       <c r="D18" t="n">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>365.0</v>
+        <v>545.0</v>
       </c>
       <c r="D19" t="n">
-        <v>36.5</v>
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>
